--- a/Drafts/collaborator_notes/co-authors.xlsx
+++ b/Drafts/collaborator_notes/co-authors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ana/Dropbox/Dissertation/Chapters/DNA_predators/drafts/collaborator_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECE32B1-03DC-D748-83F4-424583C5688C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851EB38-730F-994C-AE7A-93D5E7D5F9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12860" yWindow="460" windowWidth="12660" windowHeight="15000" xr2:uid="{9182A529-456F-4949-80B4-E934271EDF90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Rachel Behm</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>edits/read</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Completed:</t>
   </si>
 </sst>
 </file>
@@ -561,7 +576,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,6 +598,9 @@
       <c r="D1" t="s">
         <v>36</v>
       </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -597,6 +615,9 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -611,6 +632,9 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -630,6 +654,12 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -638,6 +668,12 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -671,6 +707,9 @@
       <c r="D9" t="s">
         <v>43</v>
       </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -690,6 +729,12 @@
       <c r="A11" t="s">
         <v>39</v>
       </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -704,6 +749,9 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -718,6 +766,9 @@
       <c r="D13" t="s">
         <v>47</v>
       </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -726,6 +777,12 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -737,6 +794,9 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,8 +809,11 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -760,8 +823,11 @@
       <c r="D17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -771,8 +837,11 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -782,8 +851,11 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -793,8 +865,11 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -804,8 +879,11 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -815,8 +893,11 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -826,13 +907,25 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -842,8 +935,11 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -852,6 +948,9 @@
       </c>
       <c r="D26" t="s">
         <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Drafts/collaborator_notes/co-authors.xlsx
+++ b/Drafts/collaborator_notes/co-authors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ana/Dropbox/Dissertation/Chapters/DNA_predators/drafts/collaborator_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851EB38-730F-994C-AE7A-93D5E7D5F9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D99701-C6BB-3B4E-AFFC-B4F997DC0544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12860" yWindow="460" windowWidth="12660" windowHeight="15000" xr2:uid="{9182A529-456F-4949-80B4-E934271EDF90}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>Rachel Behm</t>
   </si>
   <si>
-    <t>Taylor Bogar</t>
-  </si>
-  <si>
     <t>Jasmine Childress</t>
   </si>
   <si>
@@ -60,15 +57,6 @@
     <t>Carina Motta</t>
   </si>
   <si>
-    <t>Katherine Plummer</t>
-  </si>
-  <si>
-    <t>David Weber</t>
-  </si>
-  <si>
-    <t>Ronald Young</t>
-  </si>
-  <si>
     <t>Kevin Park</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>behmrachel@yahoo.com</t>
-  </si>
-  <si>
     <t>magaly.espinoza4@gmail.com</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
     <t>tlrbogar00@gmail.com</t>
   </si>
   <si>
-    <t>davidaweber1@gmail.com</t>
-  </si>
-  <si>
     <t>ronaldtyoungjr@gmail.com</t>
   </si>
   <si>
@@ -117,30 +99,12 @@
     <t>An Bui</t>
   </si>
   <si>
-    <t>Bart DiFiore</t>
-  </si>
-  <si>
-    <t>Elizabeth Forbes</t>
-  </si>
-  <si>
     <t>Devyn Orr</t>
   </si>
   <si>
-    <t>Michelle Lee</t>
-  </si>
-  <si>
-    <t>Daniel Preston</t>
-  </si>
-  <si>
     <t>Rodolfo Dirzo</t>
   </si>
   <si>
-    <t>Kevin Lafferty</t>
-  </si>
-  <si>
-    <t>John McLaughlin</t>
-  </si>
-  <si>
     <t>Hillary Young</t>
   </si>
   <si>
@@ -196,13 +160,109 @@
   </si>
   <si>
     <t>Completed:</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>UCSB</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>entered in ScholarOne?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Bartholomew P. DiFiore</t>
+  </si>
+  <si>
+    <t>bdifiore@ucsb.edu</t>
+  </si>
+  <si>
+    <t>david.weber@uga.edu</t>
+  </si>
+  <si>
+    <t>Elizabeth S. Forbes</t>
+  </si>
+  <si>
+    <t>David A. Weber</t>
+  </si>
+  <si>
+    <t>forbeselizabeth.s@gmail.com</t>
+  </si>
+  <si>
+    <t>Daniel L. Preston</t>
+  </si>
+  <si>
+    <t>Dan.Preston@colostate.edu</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Department of Fish, Wildlife, and Conservation Biology, Colorado State University, Fort Collins CO 80523</t>
+    </r>
+  </si>
+  <si>
+    <t>rbehm@knights.ucf.edu</t>
+  </si>
+  <si>
+    <t>John P. McLaughlin</t>
+  </si>
+  <si>
+    <t> johnmclaughlin@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Michelle J. Lee</t>
+  </si>
+  <si>
+    <t> michellejlee@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Taylor A. Bogar</t>
+  </si>
+  <si>
+    <t>aapigo@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Katherine A. Plummer</t>
+  </si>
+  <si>
+    <t>Ronald T. Young</t>
+  </si>
+  <si>
+    <t>mmorse@ucsb.edu</t>
+  </si>
+  <si>
+    <t>jchildress@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Kevin D. Lafferty</t>
+  </si>
+  <si>
+    <t>kevin.lafferty@lifesci.ucsb.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +289,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,13 +343,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,389 +669,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57980865-018F-2D42-A1A6-5288EB69C398}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G27" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{7AEEE763-4BFE-9541-9149-63E7D87EB006}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{7AEEE763-4BFE-9541-9149-63E7D87EB006}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{6AF3EE63-95E5-C242-883D-B65324B69590}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{CCFF096C-562F-AF4F-8C89-E9F307F2134A}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{17F2F11D-F540-2F44-850C-6F441E1B41F3}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{C3972FF3-3A53-DA4A-9B50-366E72FB69E9}"/>
+    <hyperlink ref="B22" r:id="rId6" display="mailto:johnmclaughlin@ucsb.edu" xr:uid="{B6010C4D-58E0-C44F-8167-3268A7A99FBF}"/>
+    <hyperlink ref="B18" r:id="rId7" display="mailto:michellejlee@ucsb.edu" xr:uid="{04AEDDAB-A03A-A945-8259-128F4B6AE72C}"/>
+    <hyperlink ref="B13" r:id="rId8" display="mailto:aapigo@ucsb.edu" xr:uid="{66AF5975-544D-0541-AFB8-1C79E60A9A27}"/>
+    <hyperlink ref="B4" r:id="rId9" display="mailto:jchildress@ucsb.edu" xr:uid="{D7E125B2-33F8-A74D-A7F4-C8A736B7F786}"/>
+    <hyperlink ref="B6" r:id="rId10" display="mailto:mmorse@ucsb.edu" xr:uid="{EF524906-DCD6-9648-A696-7EBB86D05E53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
